--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -5,27 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
-    <sheet name="Company Admin" sheetId="5" r:id="rId2"/>
-    <sheet name="CFO" sheetId="9" r:id="rId3"/>
-    <sheet name="ExternalLawyer" sheetId="10" r:id="rId4"/>
-    <sheet name="FE" sheetId="11" r:id="rId5"/>
-    <sheet name="Mgmt" sheetId="12" r:id="rId6"/>
-    <sheet name="Login" sheetId="13" r:id="rId7"/>
+    <sheet name="Notice Open - Performer" sheetId="2" r:id="rId2"/>
+    <sheet name="Case Open - Performer" sheetId="3" r:id="rId3"/>
+    <sheet name="Task Open - Performer" sheetId="4" r:id="rId4"/>
+    <sheet name="Company Admin" sheetId="5" r:id="rId5"/>
+    <sheet name="CFO" sheetId="9" r:id="rId6"/>
+    <sheet name="ExternalLawyer" sheetId="10" r:id="rId7"/>
+    <sheet name="FE" sheetId="11" r:id="rId8"/>
+    <sheet name="Mgmt" sheetId="12" r:id="rId9"/>
+    <sheet name="Login" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="290">
   <si>
     <t>URL</t>
   </si>
@@ -105,18 +108,12 @@
     <t>Contact Person Dept</t>
   </si>
   <si>
-    <t>performer a</t>
-  </si>
-  <si>
     <t>Notice Term</t>
   </si>
   <si>
     <t>Owner*</t>
   </si>
   <si>
-    <t>Deepali Devkar</t>
-  </si>
-  <si>
     <t>Notice Budget</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Internal User</t>
   </si>
   <si>
-    <t>Ashitosh Wagh</t>
-  </si>
-  <si>
     <t>External User</t>
   </si>
   <si>
@@ -252,7 +246,7 @@
     <t>New Case Title 422</t>
   </si>
   <si>
-    <t>Abcde</t>
+    <t>Inward</t>
   </si>
   <si>
     <t>Internal 20234 Case</t>
@@ -330,6 +324,9 @@
     <t>Payment Type</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
     <t>No15674</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
     <t xml:space="preserve">Amount </t>
   </si>
   <si>
+    <t>ABC</t>
+  </si>
+  <si>
     <t>New Expected Outcome 92</t>
   </si>
   <si>
@@ -465,6 +465,9 @@
     <t>lawyer123@avantis.info</t>
   </si>
   <si>
+    <t>New Expected Outcome 551</t>
+  </si>
+  <si>
     <t>fe@bitaconsulting.co.in</t>
   </si>
   <si>
@@ -504,9 +507,6 @@
     <t>New Expected Outcome 466</t>
   </si>
   <si>
-    <t>CIT(A)</t>
-  </si>
-  <si>
     <t>New Task 0895658 Description</t>
   </si>
   <si>
@@ -516,12 +516,15 @@
     <t>New Task  Description1760</t>
   </si>
   <si>
+    <t>Automate Test New test</t>
+  </si>
+  <si>
+    <t>New Task 75567 Description</t>
+  </si>
+  <si>
     <t>Automation Test 432</t>
   </si>
   <si>
-    <t>Checks</t>
-  </si>
-  <si>
     <t>New Task  Description2143</t>
   </si>
   <si>
@@ -534,15 +537,12 @@
     <t>FY</t>
   </si>
   <si>
-    <t xml:space="preserve">abc Pvt td </t>
+    <t>order as on date 15april2023</t>
   </si>
   <si>
     <t>No1537</t>
   </si>
   <si>
-    <t>Automate Test67</t>
-  </si>
-  <si>
     <t>implementation.avantis@gmail.com</t>
   </si>
   <si>
@@ -552,9 +552,6 @@
     <t>Automation  06feb24</t>
   </si>
   <si>
-    <t>riya@yahoo.com</t>
-  </si>
-  <si>
     <t>Cryptocurrency</t>
   </si>
   <si>
@@ -564,310 +561,352 @@
     <t>debit cards For SBI</t>
   </si>
   <si>
-    <t>Dhanshri</t>
-  </si>
-  <si>
     <t>Pooja</t>
   </si>
   <si>
-    <t>Allahabad High Court. .</t>
-  </si>
-  <si>
-    <t>Hearing Of Suits And Examination Of Witnesses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Appeal, Review, Revision</t>
-  </si>
-  <si>
-    <t>Nisha</t>
-  </si>
-  <si>
-    <t>Dhanshree</t>
-  </si>
-  <si>
-    <t>Very very good</t>
-  </si>
-  <si>
-    <t>general partnership  Ltd</t>
-  </si>
-  <si>
-    <t>nisha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sole proprietorship  ltd</t>
+    <t xml:space="preserve"> performer@avantis.info</t>
+  </si>
+  <si>
+    <t>Mgmt@regtrack.com</t>
+  </si>
+  <si>
+    <t>companyadmin@regtrack.com</t>
+  </si>
+  <si>
+    <t>Case Open</t>
+  </si>
+  <si>
+    <t>Task Open</t>
+  </si>
+  <si>
+    <t>Notice Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mayur Gaikwad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawyer User</t>
+  </si>
+  <si>
+    <t>reviewer regtrack</t>
+  </si>
+  <si>
+    <t>Auditor User</t>
+  </si>
+  <si>
+    <t>Lawyer User</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Mayur Gaikwad</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Pune High court.</t>
+  </si>
+  <si>
+    <t>admin@111</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Deepali Dev</t>
+  </si>
+  <si>
+    <t>priya arora</t>
+  </si>
+  <si>
+    <t>Task as on 11may24</t>
+  </si>
+  <si>
+    <t>Automate Test6</t>
+  </si>
+  <si>
+    <t>Rudra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGHALAY HIGH COURT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Company Law</t>
+  </si>
+  <si>
+    <t>digital payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital Wallets</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Public notice</t>
+  </si>
+  <si>
+    <t>Filing</t>
+  </si>
+  <si>
+    <t>Fact &amp; Finding Discovery</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>Arbitration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automation Test</t>
+  </si>
+  <si>
+    <t>Notice Hearing</t>
+  </si>
+  <si>
+    <t>Notice Appeal</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>lawyer@avantis.info</t>
+  </si>
+  <si>
+    <t>Debit card</t>
+  </si>
+  <si>
+    <t>Automate Test New 4</t>
+  </si>
+  <si>
+    <t>Ref-670301</t>
+  </si>
+  <si>
+    <t>Task as  2</t>
+  </si>
+  <si>
+    <t>RefNo2</t>
+  </si>
+  <si>
+    <t>Case as on 522893</t>
+  </si>
+  <si>
+    <t>Case 710618</t>
+  </si>
+  <si>
+    <t>Task 8</t>
+  </si>
+  <si>
+    <t>New Task 6</t>
+  </si>
+  <si>
+    <t>abc Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Pratiksha Shinde</t>
+  </si>
+  <si>
+    <t>Pratiksha@vimalagencies.net</t>
+  </si>
+  <si>
+    <t>LP Pvt Ltd</t>
   </si>
   <si>
     <t>Corporations 2</t>
   </si>
   <si>
+    <t>riyansh5@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">
- Assessment Group ltd</t>
-  </si>
-  <si>
-    <t>rajvveer@yahoo.com</t>
-  </si>
-  <si>
-    <t>patil</t>
+Arth Associates New</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+shoib2@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">
- B3B Law Associates pvt ltd</t>
-  </si>
-  <si>
-    <t>Jadhav</t>
-  </si>
-  <si>
-    <t>pooja@itc.com</t>
-  </si>
-  <si>
-    <t>Sonu Dagade</t>
-  </si>
-  <si>
-    <t>sneha dagade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gauhati  High Court.
+ B2B Law Associates</t>
+  </si>
+  <si>
+    <t>Kadam</t>
+  </si>
+  <si>
+    <t>poojak@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Ambrish Patil</t>
+  </si>
+  <si>
+    <t>Avirat Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manipur High Court</t>
+  </si>
+  <si>
+    <t>Civil  Type</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>order 28FEB24</t>
+  </si>
+  <si>
+    <t>Partnerships</t>
+  </si>
+  <si>
+    <t>Sakib</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Appearance of parties</t>
+  </si>
+  <si>
+    <t>Argument</t>
+  </si>
+  <si>
+    <t>Task as on 15062024</t>
+  </si>
+  <si>
+    <t>Case No 26may2024</t>
+  </si>
+  <si>
+    <t>bhagyesh123@tlregtech.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> snehal.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Task 23</t>
+  </si>
+  <si>
+    <t>RefNo-4</t>
+  </si>
+  <si>
+    <t>case no350029</t>
+  </si>
+  <si>
+    <t>Task Test 6</t>
+  </si>
+  <si>
+    <t>Notice No 89421248</t>
+  </si>
+  <si>
+    <t>Ref-45351</t>
+  </si>
+  <si>
+    <t>RefNo-6</t>
+  </si>
+  <si>
+    <t>Case 638648</t>
+  </si>
+  <si>
+    <t>No 967312</t>
+  </si>
+  <si>
+    <t>New Task 11</t>
+  </si>
+  <si>
+    <t>Ref no 24jun2024</t>
+  </si>
+  <si>
+    <t>RefNo-23may</t>
+  </si>
+  <si>
+    <t>Case No 23jun2024</t>
+  </si>
+  <si>
+    <t>sanket@gmail.com</t>
+  </si>
+  <si>
+    <t>Corporations 6</t>
+  </si>
+  <si>
+    <t>ram6@gmail.com</t>
+  </si>
+  <si>
+    <t>Limited Liability Companies (LLLCs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+New Green Law Group </t>
+  </si>
+  <si>
+    <t>saniya1@itc.com</t>
+  </si>
+  <si>
+    <t>Sande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ B6B Law Associates</t>
+  </si>
+  <si>
+    <t>Tanuja</t>
+  </si>
+  <si>
+    <t>tanuja2@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rahul Kadam</t>
+  </si>
+  <si>
+    <t>Rahul Chavan</t>
+  </si>
+  <si>
+    <t>New Calcutta High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Gauhati High Court
 </t>
   </si>
   <si>
-    <t>New ELECTION PETITION  1</t>
-  </si>
-  <si>
-    <t>New COMPANY PETITION 1</t>
-  </si>
-  <si>
-    <t>BHIM UPIII</t>
-  </si>
-  <si>
-    <t>Phone Pe UPIII</t>
-  </si>
-  <si>
-    <t>New Invariable and continuous 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Not opposed to any law 1</t>
-  </si>
-  <si>
-    <t>New Originating summons.1</t>
-  </si>
-  <si>
-    <t>New Statement of claim.1</t>
-  </si>
-  <si>
-    <t>New Legal Forms for Advocates 1</t>
-  </si>
-  <si>
-    <t>New Sale Documents Formats 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very Very Excellent </t>
-  </si>
-  <si>
-    <t>New Hearing Of Suit</t>
-  </si>
-  <si>
-    <t>New  Appeal, Review</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>Automate Test New 4</t>
-  </si>
-  <si>
-    <t>Task as on 19Apr2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Task 913</t>
-  </si>
-  <si>
-    <t>RefNo-21</t>
-  </si>
-  <si>
-    <t>Task Test 0151</t>
-  </si>
-  <si>
-    <t>New Task 76314</t>
-  </si>
-  <si>
-    <t>Individual Task</t>
-  </si>
-  <si>
-    <t>Ref no-Notice No 13april2024</t>
-  </si>
-  <si>
-    <t>case no 0339302</t>
-  </si>
-  <si>
-    <t>CaseOpen</t>
-  </si>
-  <si>
-    <t>Notice Open</t>
-  </si>
-  <si>
-    <t>TaskOpen</t>
-  </si>
-  <si>
-    <t>order 27FEB24</t>
-  </si>
-  <si>
-    <t>Corporations 12</t>
-  </si>
-  <si>
-    <t>riyansh@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Assessment Group Pvt Ltd</t>
-  </si>
-  <si>
-    <t>devansh@gmail.com</t>
-  </si>
-  <si>
-    <t>Gaikwad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- B3B Law Associates</t>
-  </si>
-  <si>
-    <t>Yadav</t>
-  </si>
-  <si>
-    <t>Vishranti</t>
-  </si>
-  <si>
-    <t>vishranti@yahoo.com</t>
-  </si>
-  <si>
-    <t>Sonu Arora</t>
-  </si>
-  <si>
-    <t>Mahesh dhaygave</t>
-  </si>
-  <si>
-    <t>Allahabad  High Court. .</t>
-  </si>
-  <si>
-    <t>ELECTION PETITION New</t>
-  </si>
-  <si>
-    <t>COMPANY PETITION New</t>
-  </si>
-  <si>
-    <t>BWM UPII</t>
-  </si>
-  <si>
-    <t>Phone Pe UPII</t>
-  </si>
-  <si>
-    <t>Invariable and continuous abc</t>
-  </si>
-  <si>
-    <t>Not opposed to any law  new</t>
-  </si>
-  <si>
-    <t>Originating summons new</t>
-  </si>
-  <si>
-    <t>Statement of claim new</t>
-  </si>
-  <si>
-    <t>Legal Forms for Advocates abc</t>
-  </si>
-  <si>
-    <t>Sale Documents Formats abc</t>
-  </si>
-  <si>
-    <t>Excellent abc</t>
-  </si>
-  <si>
-    <t>Very good abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performer@avantis.info</t>
-  </si>
-  <si>
-    <t>companyadmin@regtrack.com</t>
-  </si>
-  <si>
-    <t>Mgmt@regtrack.com</t>
-  </si>
-  <si>
-    <t>Dehli High Court</t>
-  </si>
-  <si>
-    <t>performer regtrack</t>
-  </si>
-  <si>
-    <t>priya arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mayur Gaikwad</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Company Admin</t>
-  </si>
-  <si>
-    <t>Ref no 01Jun2024</t>
-  </si>
-  <si>
-    <t>Case No 1442024</t>
-  </si>
-  <si>
-    <t>Case No 14april2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-ABC and Advocates</t>
-  </si>
-  <si>
-    <t>Mayur Gaikwad</t>
-  </si>
-  <si>
-    <t>abcd Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Nlesha</t>
-  </si>
-  <si>
-    <t>nilesha@itc.com</t>
-  </si>
-  <si>
-    <t>Task as on 05042024</t>
-  </si>
-  <si>
-    <t>RefNo-4mar2024</t>
-  </si>
-  <si>
-    <t>Ref-762310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc </t>
-  </si>
-  <si>
-    <t>ABC and Advocates</t>
-  </si>
-  <si>
-    <t>Task as  36416</t>
-  </si>
-  <si>
-    <t>RefNo-1811</t>
-  </si>
-  <si>
-    <t>Case as on 2002310</t>
-  </si>
-  <si>
-    <t>Case 76787212</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>New Task 12</t>
+    <t xml:space="preserve">New SUPREME COURT LEAVE APPLICATION </t>
+  </si>
+  <si>
+    <t>New Tax Appeal</t>
+  </si>
+  <si>
+    <t>Test Internet Banking</t>
+  </si>
+  <si>
+    <t>Test Mobile banking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Legal Customs </t>
+  </si>
+  <si>
+    <t>New Conventional Customs</t>
+  </si>
+  <si>
+    <t>New Case filing</t>
+  </si>
+  <si>
+    <t>New Admission hearing</t>
+  </si>
+  <si>
+    <t>Test Invoices</t>
+  </si>
+  <si>
+    <t>Test Bank statements</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,6 +1116,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,20 +1502,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1481,874 +1523,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="4">
-        <v>2024024</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59">
-        <v>75000</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="8">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>89347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>47600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101">
-        <v>8456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>66</v>
-      </c>
-      <c r="B108" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B109" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>69</v>
-      </c>
-      <c r="B110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>41</v>
-      </c>
-      <c r="B111" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="8">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" s="8">
-        <v>44570</v>
       </c>
     </row>
   </sheetData>
@@ -2364,12 +1557,1012 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3" display="admin@123"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6" display="admin@123"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="3" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>276552</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>75000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="8">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45">
+        <v>89347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44570</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D173"/>
+  <sheetViews>
+    <sheetView topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2392,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2400,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2408,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2416,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2429,25 +2622,25 @@
     </row>
     <row r="9" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A9" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2455,26 +2648,26 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2482,42 +2675,42 @@
         <v>147</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
       <c r="A18" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" ht="38.25">
+    <row r="19" spans="1:2" ht="25.5">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5">
       <c r="A20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>192</v>
+        <v>108</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21">
         <v>7696524324</v>
@@ -2525,23 +2718,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2549,36 +2742,36 @@
     </row>
     <row r="25" spans="1:2" ht="25.5">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -2586,15 +2779,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>9943234594</v>
@@ -2602,199 +2795,200 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
         <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="24" customFormat="1">
       <c r="A33" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:2" ht="25.5">
       <c r="A34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" t="s">
-        <v>197</v>
+        <v>117</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
       <c r="A36" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
       <c r="A42" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
       <c r="A45" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="25.5">
       <c r="A47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" t="s">
-        <v>205</v>
+        <v>126</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
       <c r="A48" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
       <c r="A51" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
       <c r="A54" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
       <c r="A57" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2807,7 +3001,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2818,88 +3012,74 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B66" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B68" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>264</v>
+      <c r="C69" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -2909,68 +3089,71 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="3" t="s">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="3">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>255</v>
+        <v>26</v>
+      </c>
+      <c r="B77" s="3">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C78" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B79" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2978,29 +3161,29 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B80" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B82" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -3008,10 +3191,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B83" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -3019,318 +3202,315 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>272</v>
+        <v>34</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="3">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B86" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="3"/>
-    </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C91" t="s">
-        <v>64</v>
-      </c>
+      <c r="A91" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>255</v>
+        <v>154</v>
+      </c>
+      <c r="C94" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="10" t="s">
-        <v>81</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>99</v>
+      <c r="A99" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>85</v>
+      <c r="A100" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="3"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
+      <c r="A105" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>275</v>
+        <v>39</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
-      <c r="D106" t="s">
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B108" s="3"/>
-    </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A109" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="9" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>44</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C114" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" t="s">
-        <v>45</v>
+      <c r="A114" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" t="s">
-        <v>73</v>
+        <v>42</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>49</v>
-      </c>
-      <c r="B119" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120">
-        <v>75000</v>
-      </c>
-      <c r="C120" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="B120" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>264</v>
+        <v>49</v>
+      </c>
+      <c r="B121">
+        <v>75000</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>53</v>
-      </c>
-      <c r="B123" t="s">
-        <v>159</v>
+        <v>14</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B124" t="s">
-        <v>55</v>
-      </c>
-      <c r="C124" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -3338,53 +3518,53 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>61</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>255</v>
+        <v>57</v>
+      </c>
+      <c r="B129" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>31</v>
-      </c>
-      <c r="B130" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C130" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B131" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
@@ -3392,10 +3572,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B132" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -3403,10 +3583,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B133" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
@@ -3414,267 +3594,270 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>32</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>38</v>
-      </c>
-      <c r="B136" s="3">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B137" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="14"/>
-    </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>63</v>
-      </c>
-      <c r="B141" t="s">
-        <v>277</v>
-      </c>
-      <c r="C141" t="s">
-        <v>64</v>
-      </c>
+      <c r="A141" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="C142" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>156</v>
+      </c>
+      <c r="C144" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="10" t="s">
-        <v>91</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="B149" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>92</v>
-      </c>
-      <c r="B153">
-        <v>115</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>84</v>
-      </c>
-      <c r="B154" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>95</v>
-      </c>
-      <c r="B157" s="8">
-        <v>44571</v>
+      <c r="A157" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>96</v>
-      </c>
-      <c r="B158">
-        <v>6578</v>
+        <v>92</v>
+      </c>
+      <c r="B158" s="8">
+        <v>44571</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B159">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>94</v>
+      </c>
+      <c r="B160">
         <v>45600</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>96</v>
-      </c>
-      <c r="B162">
+    <row r="163" spans="1:3">
+      <c r="A163" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>93</v>
+      </c>
+      <c r="B164">
         <v>4567</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>104</v>
-      </c>
-      <c r="B163">
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>102</v>
+      </c>
+      <c r="B165">
         <v>50000</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>63</v>
-      </c>
-      <c r="B166" t="s">
-        <v>278</v>
-      </c>
-      <c r="C166" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>65</v>
-      </c>
-      <c r="B167" t="s">
-        <v>112</v>
-      </c>
-      <c r="C167" t="s">
-        <v>64</v>
+      <c r="A167" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="C168" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B169" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="C169" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B170" t="s">
-        <v>256</v>
+        <v>110</v>
+      </c>
+      <c r="C170" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B171" t="s">
-        <v>70</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B14" r:id="rId3"/>
-    <hyperlink ref="B20" r:id="rId4"/>
-    <hyperlink ref="B30" r:id="rId5"/>
-    <hyperlink ref="B41" r:id="rId6" display="ABCD@itc.com"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
     <hyperlink ref="B17" r:id="rId7"/>
-    <hyperlink ref="B28" r:id="rId8" display="jadhav@jtyf.com"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="B7" r:id="rId10"/>
-    <hyperlink ref="B5" r:id="rId11"/>
+    <hyperlink ref="B20" r:id="rId8" display="sujays@gmail.com"/>
+    <hyperlink ref="B28" r:id="rId9" display="jadhav@jtyf.com"/>
+    <hyperlink ref="B30" r:id="rId10"/>
+    <hyperlink ref="B41" r:id="rId11" display="ABCD@itc.com"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -3685,12 +3868,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3712,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3725,7 +3908,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3733,10 +3916,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3749,10 +3932,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3760,7 +3943,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -3774,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -3785,118 +3968,118 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.5">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>153</v>
@@ -3904,16 +4087,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -3921,10 +4104,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -3935,7 +4118,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" s="3"/>
     </row>
@@ -3945,57 +4128,57 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4019,15 +4202,15 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>75000</v>
@@ -4038,10 +4221,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4049,20 +4232,20 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -4070,104 +4253,104 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B54">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B59">
-        <v>178</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A62" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -4175,26 +4358,26 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4202,42 +4385,42 @@
         <v>147</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:2" ht="38.25">
+    <row r="72" spans="1:2" ht="25.5">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>7696524324</v>
@@ -4245,23 +4428,23 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -4269,36 +4452,36 @@
     </row>
     <row r="78" spans="1:2" ht="25.5">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -4306,15 +4489,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85">
         <v>9943234594</v>
@@ -4322,73 +4505,73 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" t="s">
         <v>135</v>
-      </c>
-      <c r="B86" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="16" customFormat="1">
       <c r="A88" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
       <c r="A93" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
       <c r="A98" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4399,128 +4582,160 @@
     </row>
     <row r="103" spans="1:2" s="16" customFormat="1">
       <c r="A103" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
       <c r="A108" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
       <c r="A113" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
       <c r="A118" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
       <c r="A123" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
       <c r="A128" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>183</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4530,21 +4745,25 @@
     <hyperlink ref="B67" r:id="rId3"/>
     <hyperlink ref="B70" r:id="rId4"/>
     <hyperlink ref="B73" r:id="rId5"/>
-    <hyperlink ref="B84" r:id="rId6"/>
-    <hyperlink ref="B82" r:id="rId7" display="jadhav@jtyf.com"/>
-    <hyperlink ref="B100" r:id="rId8" display="ABCD@itc.com"/>
+    <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com"/>
+    <hyperlink ref="B134" r:id="rId7"/>
+    <hyperlink ref="B133" r:id="rId8"/>
+    <hyperlink ref="B136" r:id="rId9"/>
+    <hyperlink ref="B135" r:id="rId10"/>
+    <hyperlink ref="B82" r:id="rId11" display="jadhav@jtyf.com"/>
+    <hyperlink ref="B84" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4567,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4578,12 +4797,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>221</v>
+      <c r="B6" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -4594,59 +4818,53 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -4655,69 +4873,72 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" ht="25.5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -4725,29 +4946,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -4755,10 +4976,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -4766,244 +4987,234 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="3"/>
-    </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="3"/>
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10" t="s">
-        <v>81</v>
+      <c r="A38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>42</v>
+      <c r="B45" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="4">
-        <v>2024024</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
+      <c r="A47" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="3"/>
+      <c r="A48" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3">
+        <v>643467</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="12" t="s">
-        <v>87</v>
+      <c r="A49" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>222</v>
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>261</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5027,15 +5238,15 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59">
         <v>75000</v>
@@ -5046,10 +5257,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5062,18 +5273,18 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" t="s">
-        <v>159</v>
+        <v>51</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -5081,10 +5292,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -5095,12 +5306,12 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
@@ -5108,23 +5319,23 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B69" s="3">
         <v>10000</v>
@@ -5135,7 +5346,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B70" s="3">
         <v>5000</v>
@@ -5146,7 +5357,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B71" s="3">
         <v>3000</v>
@@ -5157,7 +5368,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B72" s="3">
         <v>2000</v>
@@ -5168,23 +5379,23 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B75" s="3">
         <v>3</v>
@@ -5192,244 +5403,102 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
       </c>
     </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="A79" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="9" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="8">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="B88">
+        <v>6345578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="8">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>89347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>47600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101">
-        <v>8456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>66</v>
-      </c>
-      <c r="B108" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B109" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>69</v>
-      </c>
-      <c r="B110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>41</v>
-      </c>
-      <c r="B111" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="8">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" s="8">
-        <v>44570</v>
+      <c r="B98" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5437,12 +5506,13 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B1" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5476,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5488,7 +5558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5532,86 +5602,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3" display="admin@123"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6" display="admin@123"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -24,6 +19,7 @@
     <sheet name="Login" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A115:H135"/>
 </workbook>
 </file>
 
@@ -174,9 +170,6 @@
     <t>Case Type</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>Case Budget</t>
   </si>
   <si>
@@ -327,9 +320,6 @@
     <t>cash</t>
   </si>
   <si>
-    <t>No15674</t>
-  </si>
-  <si>
     <t>600000Rs</t>
   </si>
   <si>
@@ -561,9 +551,6 @@
     <t>debit cards For SBI</t>
   </si>
   <si>
-    <t>Pooja</t>
-  </si>
-  <si>
     <t xml:space="preserve"> performer@avantis.info</t>
   </si>
   <si>
@@ -603,9 +590,6 @@
     <t>commercial</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
     <t>Mayur Gaikwad</t>
   </si>
   <si>
@@ -615,44 +599,10 @@
     <t>Pune High court.</t>
   </si>
   <si>
-    <t>admin@111</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>Very Good</t>
-  </si>
-  <si>
     <t>Deepali Dev</t>
   </si>
   <si>
     <t>priya arora</t>
-  </si>
-  <si>
-    <t>Task as on 11may24</t>
-  </si>
-  <si>
-    <t>Automate Test6</t>
-  </si>
-  <si>
-    <t>Rudra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGHALAY HIGH COURT
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company Law</t>
-  </si>
-  <si>
-    <t>digital payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Digital Wallets</t>
   </si>
   <si>
     <t>Criminal</t>
@@ -662,27 +612,9 @@
 Public notice</t>
   </si>
   <si>
-    <t>Filing</t>
-  </si>
-  <si>
-    <t>Fact &amp; Finding Discovery</t>
-  </si>
-  <si>
-    <t>Agreement</t>
-  </si>
-  <si>
-    <t>Arbitration</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Automation Test</t>
   </si>
   <si>
-    <t>Notice Hearing</t>
-  </si>
-  <si>
-    <t>Notice Appeal</t>
-  </si>
-  <si>
     <t>2024-2025</t>
   </si>
   <si>
@@ -692,64 +624,46 @@
     <t>Debit card</t>
   </si>
   <si>
-    <t>Automate Test New 4</t>
-  </si>
-  <si>
-    <t>Ref-670301</t>
-  </si>
-  <si>
-    <t>Task as  2</t>
-  </si>
-  <si>
-    <t>RefNo2</t>
-  </si>
-  <si>
-    <t>Case as on 522893</t>
-  </si>
-  <si>
-    <t>Case 710618</t>
-  </si>
-  <si>
-    <t>Task 8</t>
-  </si>
-  <si>
-    <t>New Task 6</t>
-  </si>
-  <si>
-    <t>abc Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Pratiksha Shinde</t>
-  </si>
-  <si>
-    <t>Pratiksha@vimalagencies.net</t>
-  </si>
-  <si>
-    <t>LP Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Corporations 2</t>
-  </si>
-  <si>
-    <t>riyansh5@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Arth Associates New</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-shoib2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- B2B Law Associates</t>
-  </si>
-  <si>
-    <t>Kadam</t>
-  </si>
-  <si>
-    <t>poojak@yahoo.com</t>
+    <t>High</t>
+  </si>
+  <si>
+    <t>order 28FEB24</t>
+  </si>
+  <si>
+    <t>Automate Test9</t>
+  </si>
+  <si>
+    <t>Filing of written statement by defendant</t>
+  </si>
+  <si>
+    <t>Discovery and Inspection</t>
+  </si>
+  <si>
+    <t>No15</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Sangram</t>
+  </si>
+  <si>
+    <t>snehal10.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deepali12@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Prashant Jadhav</t>
+  </si>
+  <si>
+    <t>riyansh8@gmail.com</t>
+  </si>
+  <si>
+    <t>Sawant</t>
+  </si>
+  <si>
+    <t>Neha</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -759,154 +673,236 @@
     <t>Avirat Patil</t>
   </si>
   <si>
-    <t xml:space="preserve"> Manipur High Court</t>
-  </si>
-  <si>
-    <t>Civil  Type</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>order 28FEB24</t>
-  </si>
-  <si>
-    <t>Partnerships</t>
-  </si>
-  <si>
-    <t>Sakib</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Appearance of parties</t>
-  </si>
-  <si>
-    <t>Argument</t>
-  </si>
-  <si>
-    <t>Task as on 15062024</t>
-  </si>
-  <si>
-    <t>Case No 26may2024</t>
-  </si>
-  <si>
-    <t>bhagyesh123@tlregtech.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> snehal.patil@tlregtech.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Task 23</t>
-  </si>
-  <si>
-    <t>RefNo-4</t>
-  </si>
-  <si>
-    <t>case no350029</t>
-  </si>
-  <si>
-    <t>Task Test 6</t>
-  </si>
-  <si>
-    <t>Notice No 89421248</t>
-  </si>
-  <si>
-    <t>Ref-45351</t>
-  </si>
-  <si>
-    <t>RefNo-6</t>
-  </si>
-  <si>
-    <t>Case 638648</t>
-  </si>
-  <si>
-    <t>No 967312</t>
-  </si>
-  <si>
-    <t>New Task 11</t>
-  </si>
-  <si>
-    <t>Ref no 24jun2024</t>
-  </si>
-  <si>
-    <t>RefNo-23may</t>
-  </si>
-  <si>
-    <t>Case No 23jun2024</t>
-  </si>
-  <si>
-    <t>sanket@gmail.com</t>
+    <t>admin@111</t>
+  </si>
+  <si>
+    <t>Task as on 18062024</t>
+  </si>
+  <si>
+    <t>Rushikesh</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>Task as on 13may24</t>
+  </si>
+  <si>
+    <t>Limited liability company (LCC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Defend &amp; Protect Law Firm</t>
   </si>
   <si>
     <t>Corporations 6</t>
   </si>
   <si>
-    <t>ram6@gmail.com</t>
-  </si>
-  <si>
-    <t>Limited Liability Companies (LLLCs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-New Green Law Group </t>
-  </si>
-  <si>
-    <t>saniya1@itc.com</t>
-  </si>
-  <si>
-    <t>Sande</t>
+    <t>Limited liability company (LLc)</t>
+  </si>
+  <si>
+    <t>prashant1@vimalagencies.net</t>
   </si>
   <si>
     <t xml:space="preserve">
  B6B Law Associates</t>
   </si>
   <si>
-    <t>Tanuja</t>
-  </si>
-  <si>
-    <t>tanuja2@yahoo.com</t>
-  </si>
-  <si>
-    <t>Rahul Kadam</t>
-  </si>
-  <si>
-    <t>Rahul Chavan</t>
-  </si>
-  <si>
-    <t>New Calcutta High Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Gauhati High Court
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>nehay1@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mumbai High  Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHHATTISGARH  HIGH COURT.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">New SUPREME COURT LEAVE APPLICATION </t>
-  </si>
-  <si>
-    <t>New Tax Appeal</t>
-  </si>
-  <si>
-    <t>Test Internet Banking</t>
-  </si>
-  <si>
-    <t>Test Mobile banking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Legal Customs </t>
-  </si>
-  <si>
-    <t>New Conventional Customs</t>
-  </si>
-  <si>
-    <t>New Case filing</t>
-  </si>
-  <si>
-    <t>New Admission hearing</t>
-  </si>
-  <si>
-    <t>Test Invoices</t>
-  </si>
-  <si>
-    <t>Test Bank statements</t>
+    <t>Legal Notice for Money Recovery.</t>
+  </si>
+  <si>
+    <t>Legal Notice for Eviction.</t>
+  </si>
+  <si>
+    <t>Mobile payments</t>
+  </si>
+  <si>
+    <t>Direct debit</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>Writ of Summon:</t>
+  </si>
+  <si>
+    <t>Technical documents</t>
+  </si>
+  <si>
+    <t>Interlocutory Proceedings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+shoib7@gmail.com</t>
+  </si>
+  <si>
+    <t>admin#111</t>
+  </si>
+  <si>
+    <t>RefNo-28may</t>
+  </si>
+  <si>
+    <t>Case No 28122024</t>
+  </si>
+  <si>
+    <t>Case No 28Jul2024</t>
+  </si>
+  <si>
+    <t>Automate Test New 8</t>
+  </si>
+  <si>
+    <t>Limited Partnership New</t>
+  </si>
+  <si>
+    <t>Rushikesh Patil</t>
+  </si>
+  <si>
+    <t>rushikesh12@gmail.com</t>
+  </si>
+  <si>
+    <t>D corporation</t>
+  </si>
+  <si>
+    <t>ram10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tax Law Consultancy New</t>
+  </si>
+  <si>
+    <t>saniya5@itc.com</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sports Law Groupp</t>
+  </si>
+  <si>
+    <t>tanuja6@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rohini Kantak</t>
+  </si>
+  <si>
+    <t>Amit Pawar</t>
+  </si>
+  <si>
+    <t>Supreme Court of Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City Civil and Sessions Court, Pune
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Contract Labour </t>
+  </si>
+  <si>
+    <t>New Terminal Tax</t>
+  </si>
+  <si>
+    <t>Apple Payy</t>
+  </si>
+  <si>
+    <t>eCheckss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legal Customss </t>
+  </si>
+  <si>
+    <t>Conventional Customss</t>
+  </si>
+  <si>
+    <t>Service of summonss</t>
+  </si>
+  <si>
+    <t>Criminal appealss</t>
+  </si>
+  <si>
+    <t>Invoicess</t>
+  </si>
+  <si>
+    <t>Medical recordss</t>
+  </si>
+  <si>
+    <t>Acceptablee</t>
+  </si>
+  <si>
+    <t>Exceeds Expectationss</t>
+  </si>
+  <si>
+    <t>Ref no 26July2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Task 19</t>
+  </si>
+  <si>
+    <t>RefNo-15</t>
+  </si>
+  <si>
+    <t>Task Test 53</t>
+  </si>
+  <si>
+    <t>New Task 26</t>
+  </si>
+  <si>
+    <t>Case No 19jun2024</t>
+  </si>
+  <si>
+    <t>Notice No 20jun24</t>
+  </si>
+  <si>
+    <t>Ref-4323275</t>
+  </si>
+  <si>
+    <t>New Task 14</t>
+  </si>
+  <si>
+    <t>RefNo-11</t>
+  </si>
+  <si>
+    <t>Case 63973428</t>
+  </si>
+  <si>
+    <t>No 9623642</t>
+  </si>
+  <si>
+    <t>Ref-748728</t>
+  </si>
+  <si>
+    <t>Task as 15</t>
+  </si>
+  <si>
+    <t>RefNo8</t>
+  </si>
+  <si>
+    <t>Case as on 5644293</t>
+  </si>
+  <si>
+    <t>Case 7919025</t>
+  </si>
+  <si>
+    <t>Task 20</t>
+  </si>
+  <si>
+    <t>New Task 82</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1501,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1528,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1537,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1599,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1615,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1623,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1673,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1700,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1763,7 +1759,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1782,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1853,7 +1849,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1874,56 +1870,56 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1931,7 +1927,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1939,40 +1935,40 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
         <v>95</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1996,7 +1992,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>276552</v>
+        <v>2878634</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2007,31 +2003,31 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2048,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2064,7 +2060,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2078,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2125,12 +2121,12 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>75000</v>
@@ -2141,10 +2137,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2152,23 +2148,23 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -2176,10 +2172,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -2190,12 +2186,12 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -2203,18 +2199,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2266,7 +2262,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2274,7 +2270,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2295,58 +2291,58 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2354,51 +2350,51 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="8">
         <v>44571</v>
@@ -2406,7 +2402,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>89347</v>
@@ -2414,7 +2410,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>47600</v>
@@ -2422,12 +2418,12 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>8456</v>
@@ -2435,7 +2431,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54">
         <v>50000</v>
@@ -2443,10 +2439,10 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2460,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2476,51 +2472,51 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2528,12 +2524,12 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="8">
         <v>44571</v>
@@ -2541,7 +2537,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8">
         <v>44570</v>
@@ -2561,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2585,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2593,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2601,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2609,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2622,25 +2618,25 @@
     </row>
     <row r="9" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A9" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2648,69 +2644,69 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
       <c r="A18" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" ht="25.5">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21">
         <v>7696524324</v>
@@ -2718,23 +2714,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2742,36 +2738,36 @@
     </row>
     <row r="25" spans="1:2" ht="25.5">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -2779,15 +2775,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B31">
         <v>9943234594</v>
@@ -2795,218 +2791,218 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="24" customFormat="1">
       <c r="A33" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34" spans="1:2" ht="25.5">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
       <c r="A36" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
       <c r="A42" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
       <c r="A45" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="25.5">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
       <c r="A48" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
       <c r="A51" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
       <c r="A54" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
       <c r="A57" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B62">
         <v>9000000</v>
@@ -3014,7 +3010,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3022,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3036,7 +3032,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3063,7 +3059,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3071,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3079,7 +3075,7 @@
         <v>16</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -3093,7 +3089,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -3126,7 +3122,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3145,7 +3141,7 @@
         <v>27</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3216,7 +3212,7 @@
         <v>35</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3237,57 +3233,57 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" t="s">
         <v>61</v>
-      </c>
-      <c r="B92" t="s">
-        <v>222</v>
-      </c>
-      <c r="C92" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3295,44 +3291,44 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" t="s">
         <v>95</v>
-      </c>
-      <c r="B100" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3357,7 +3353,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -3368,37 +3364,37 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3406,7 +3402,7 @@
         <v>42</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -3420,7 +3416,7 @@
         <v>44</v>
       </c>
       <c r="B116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -3434,7 +3430,7 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -3467,12 +3463,12 @@
         <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B121">
         <v>75000</v>
@@ -3483,10 +3479,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3494,23 +3490,23 @@
         <v>14</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
         <v>52</v>
-      </c>
-      <c r="B125" t="s">
-        <v>53</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -3518,10 +3514,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -3532,12 +3528,12 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
@@ -3545,18 +3541,18 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
         <v>57</v>
-      </c>
-      <c r="B129" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3608,7 +3604,7 @@
         <v>30</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3616,7 +3612,7 @@
         <v>35</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3637,58 +3633,58 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="14"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" t="s">
         <v>61</v>
-      </c>
-      <c r="B142" t="s">
-        <v>226</v>
-      </c>
-      <c r="C142" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C144" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B145" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3696,51 +3692,51 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B158" s="8">
         <v>44571</v>
@@ -3748,7 +3744,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B159">
         <v>6578</v>
@@ -3756,7 +3752,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B160">
         <v>45600</v>
@@ -3764,12 +3760,12 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B164">
         <v>4567</v>
@@ -3777,7 +3773,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B165">
         <v>50000</v>
@@ -3785,56 +3781,56 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" t="s">
+        <v>289</v>
+      </c>
+      <c r="C168" t="s">
         <v>61</v>
-      </c>
-      <c r="B168" t="s">
-        <v>227</v>
-      </c>
-      <c r="C168" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B169" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C169" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B170" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C170" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B171" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B172" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3842,7 +3838,7 @@
         <v>39</v>
       </c>
       <c r="B173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3872,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3895,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3903,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3916,10 +3912,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3932,10 +3928,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3943,7 +3939,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -3957,7 +3953,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -3979,56 +3975,56 @@
         <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4036,53 +4032,53 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
         <v>95</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4107,7 +4103,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -4118,7 +4114,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3"/>
     </row>
@@ -4128,15 +4124,15 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4144,7 +4140,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -4158,7 +4154,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -4172,7 +4168,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -4205,12 +4201,12 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>75000</v>
@@ -4221,10 +4217,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4232,20 +4228,20 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -4253,18 +4249,18 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
         <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4277,46 +4273,46 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59">
         <v>19</v>
@@ -4324,33 +4320,33 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A62" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -4358,69 +4354,69 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:2" ht="25.5">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>7696524324</v>
@@ -4428,23 +4424,23 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -4452,36 +4448,36 @@
     </row>
     <row r="78" spans="1:2" ht="25.5">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -4489,15 +4485,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85">
         <v>9943234594</v>
@@ -4505,73 +4501,73 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="16" customFormat="1">
       <c r="A88" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
       <c r="A93" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
       <c r="A98" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4582,128 +4578,128 @@
     </row>
     <row r="103" spans="1:2" s="16" customFormat="1">
       <c r="A103" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
       <c r="A108" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
       <c r="A113" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
       <c r="A118" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
       <c r="A123" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
       <c r="A128" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4711,7 +4707,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4727,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4740,7 +4736,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B67" r:id="rId3"/>
     <hyperlink ref="B70" r:id="rId4"/>
@@ -4762,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4778,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4786,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4794,12 +4790,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>4</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4807,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -4848,7 +4844,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4864,7 +4860,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -4878,7 +4874,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -4911,7 +4907,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4930,7 +4926,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5001,7 +4997,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5022,51 +5018,51 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5074,44 +5070,44 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
         <v>95</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5136,7 +5132,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -5147,13 +5143,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3">
         <v>643467</v>
@@ -5161,18 +5157,18 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5180,7 +5176,7 @@
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -5194,7 +5190,7 @@
         <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -5208,7 +5204,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -5241,12 +5237,12 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <v>75000</v>
@@ -5257,10 +5253,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5273,18 +5269,18 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
         <v>52</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -5292,10 +5288,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -5306,12 +5302,12 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
@@ -5319,18 +5315,18 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5382,7 +5378,7 @@
         <v>30</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5390,7 +5386,7 @@
         <v>35</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5411,46 +5407,46 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="8">
         <v>44571</v>
@@ -5458,7 +5454,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>6345578</v>
@@ -5466,7 +5462,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>49600</v>
@@ -5474,12 +5470,12 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>4567</v>
@@ -5487,7 +5483,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>50000</v>
@@ -5495,10 +5491,10 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5538,7 +5534,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5546,7 +5542,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5584,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5850" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,6 @@
     <sheet name="Login" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A115:H135"/>
 </workbook>
 </file>
 
@@ -518,9 +522,6 @@
     <t>New Task  Description2143</t>
   </si>
   <si>
-    <t>https://login.teamleaseregtech.com/</t>
-  </si>
-  <si>
     <t>Annual Budget</t>
   </si>
   <si>
@@ -608,301 +609,304 @@
     <t>Criminal</t>
   </si>
   <si>
+    <t xml:space="preserve"> Automation Test</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>lawyer@avantis.info</t>
+  </si>
+  <si>
+    <t>Debit card</t>
+  </si>
+  <si>
+    <t>order 28FEB24</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Sangram</t>
+  </si>
+  <si>
+    <t>snehal10.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deepali12@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>admin@111</t>
+  </si>
+  <si>
+    <t>Rushikesh</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legal Customss </t>
+  </si>
+  <si>
+    <t>Conventional Customss</t>
+  </si>
+  <si>
+    <t>Service of summonss</t>
+  </si>
+  <si>
+    <t>Criminal appealss</t>
+  </si>
+  <si>
+    <t>Automate Test New9</t>
+  </si>
+  <si>
+    <t>Task as on 14may24</t>
+  </si>
+  <si>
+    <t>https://applicationtesting.teamleaseregtech.com/Login.aspx</t>
+  </si>
+  <si>
+    <t>Notice No 21jun2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Task 21</t>
+  </si>
+  <si>
+    <t>RefNo-17</t>
+  </si>
+  <si>
+    <t>Case No 28jun2024</t>
+  </si>
+  <si>
+    <t>Task Test 55</t>
+  </si>
+  <si>
+    <t>New Task 29</t>
+  </si>
+  <si>
+    <t>Ref-438527</t>
+  </si>
+  <si>
+    <t>New Task 17</t>
+  </si>
+  <si>
+    <t>RefNo-18</t>
+  </si>
+  <si>
+    <t>Case 63932228</t>
+  </si>
+  <si>
+    <t>No 9621922</t>
+  </si>
+  <si>
+    <t>Automate Test10</t>
+  </si>
+  <si>
+    <t>Limited liability company (LCCC)</t>
+  </si>
+  <si>
+    <t>Prashant Patil</t>
+  </si>
+  <si>
+    <t>prashant2@vimalagencies.net</t>
+  </si>
+  <si>
+    <t>Limited liability company (LLLc)</t>
+  </si>
+  <si>
+    <t>Corporations 7</t>
+  </si>
+  <si>
+    <t>riyansh7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Defend &amp; Protect Firm</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
-Public notice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automation Test</t>
-  </si>
-  <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
-    <t>lawyer@avantis.info</t>
-  </si>
-  <si>
-    <t>Debit card</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>order 28FEB24</t>
-  </si>
-  <si>
-    <t>Automate Test9</t>
-  </si>
-  <si>
-    <t>Filing of written statement by defendant</t>
-  </si>
-  <si>
-    <t>Discovery and Inspection</t>
-  </si>
-  <si>
-    <t>No15</t>
-  </si>
-  <si>
-    <t>Civil</t>
-  </si>
-  <si>
-    <t>Sangram</t>
-  </si>
-  <si>
-    <t>snehal10.patil@tlregtech.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> deepali12@tlregtech.in</t>
-  </si>
-  <si>
-    <t>Prashant Jadhav</t>
-  </si>
-  <si>
-    <t>riyansh8@gmail.com</t>
-  </si>
-  <si>
-    <t>Sawant</t>
-  </si>
-  <si>
-    <t>Neha</t>
+shoib8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ B7B Law Associates</t>
+  </si>
+  <si>
+    <t>Jadhav</t>
+  </si>
+  <si>
+    <t>nehay4@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-Ambrish Patil</t>
-  </si>
-  <si>
-    <t>Avirat Patil</t>
-  </si>
-  <si>
-    <t>admin@111</t>
-  </si>
-  <si>
-    <t>Task as on 18062024</t>
-  </si>
-  <si>
-    <t>Rushikesh</t>
-  </si>
-  <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>Invoices</t>
-  </si>
-  <si>
-    <t>Task as on 13may24</t>
-  </si>
-  <si>
-    <t>Limited liability company (LCC)</t>
+Ambrish Yadav</t>
+  </si>
+  <si>
+    <t>Avirat Yadav</t>
+  </si>
+  <si>
+    <t>Mumbai  Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHHATTISGARH  COURT.
+</t>
+  </si>
+  <si>
+    <t>New Legal Notice for Money Recovery.</t>
+  </si>
+  <si>
+    <t>New Legal Notice for Eviction.</t>
+  </si>
+  <si>
+    <t>Mobile payment</t>
+  </si>
+  <si>
+    <t>Direct debit card</t>
+  </si>
+  <si>
+    <t>New Criminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+New Public notice</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Proof of ownership</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Presentation of plaint.</t>
+  </si>
+  <si>
+    <t>Appearance of parties</t>
+  </si>
+  <si>
+    <t>No19</t>
+  </si>
+  <si>
+    <t>Ref-8729332</t>
+  </si>
+  <si>
+    <t>Task as 79</t>
+  </si>
+  <si>
+    <t>Case as on 57292693</t>
+  </si>
+  <si>
+    <t>RefNo14</t>
+  </si>
+  <si>
+    <t>Case 742825025</t>
+  </si>
+  <si>
+    <t>Task 22</t>
+  </si>
+  <si>
+    <t>New Task 91</t>
+  </si>
+  <si>
+    <t>RefNo-23may</t>
+  </si>
+  <si>
+    <t>Limited Partnership (LP)</t>
+  </si>
+  <si>
+    <t>Rushikesh Patil</t>
+  </si>
+  <si>
+    <t>rushikesh14@gmail.com</t>
+  </si>
+  <si>
+    <t>P corporation</t>
+  </si>
+  <si>
+    <t>C corporation</t>
+  </si>
+  <si>
+    <t>ram12@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">
-Defend &amp; Protect Law Firm</t>
-  </si>
-  <si>
-    <t>Corporations 6</t>
-  </si>
-  <si>
-    <t>Limited liability company (LLc)</t>
-  </si>
-  <si>
-    <t>prashant1@vimalagencies.net</t>
+Tax Law Pvt Ltd  </t>
+  </si>
+  <si>
+    <t>saniya7@itc.com</t>
+  </si>
+  <si>
+    <t>Jadahv</t>
   </si>
   <si>
     <t xml:space="preserve">
- B6B Law Associates</t>
-  </si>
-  <si>
-    <t>Pawar</t>
-  </si>
-  <si>
-    <t>nehay1@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mumbai High  Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHHATTISGARH  HIGH COURT.
+New Sports Law Group </t>
+  </si>
+  <si>
+    <t>tanuja8@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rohini Patil</t>
+  </si>
+  <si>
+    <t>Shri Devkar</t>
+  </si>
+  <si>
+    <t>Supreme Court of Satara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City Civil and Sessions Court, Satara
 </t>
   </si>
   <si>
-    <t>Legal Notice for Money Recovery.</t>
-  </si>
-  <si>
-    <t>Legal Notice for Eviction.</t>
-  </si>
-  <si>
-    <t>Mobile payments</t>
-  </si>
-  <si>
-    <t>Direct debit</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
-    <t>Writ of Summon:</t>
-  </si>
-  <si>
-    <t>Technical documents</t>
-  </si>
-  <si>
-    <t>Interlocutory Proceedings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-shoib7@gmail.com</t>
-  </si>
-  <si>
-    <t>admin#111</t>
-  </si>
-  <si>
-    <t>RefNo-28may</t>
-  </si>
-  <si>
-    <t>Case No 28122024</t>
-  </si>
-  <si>
-    <t>Case No 28Jul2024</t>
-  </si>
-  <si>
-    <t>Automate Test New 8</t>
-  </si>
-  <si>
-    <t>Limited Partnership New</t>
-  </si>
-  <si>
-    <t>Rushikesh Patil</t>
-  </si>
-  <si>
-    <t>rushikesh12@gmail.com</t>
-  </si>
-  <si>
-    <t>D corporation</t>
-  </si>
-  <si>
-    <t>ram10@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Tax Law Consultancy New</t>
-  </si>
-  <si>
-    <t>saniya5@itc.com</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Sports Law Groupp</t>
-  </si>
-  <si>
-    <t>tanuja6@yahoo.com</t>
-  </si>
-  <si>
-    <t>Rohini Kantak</t>
-  </si>
-  <si>
-    <t>Amit Pawar</t>
-  </si>
-  <si>
-    <t>Supreme Court of Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City Civil and Sessions Court, Pune
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Contract Labour </t>
-  </si>
-  <si>
-    <t>New Terminal Tax</t>
-  </si>
-  <si>
-    <t>Apple Payy</t>
-  </si>
-  <si>
-    <t>eCheckss</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Legal Customss </t>
-  </si>
-  <si>
-    <t>Conventional Customss</t>
-  </si>
-  <si>
-    <t>Service of summonss</t>
-  </si>
-  <si>
-    <t>Criminal appealss</t>
-  </si>
-  <si>
-    <t>Invoicess</t>
-  </si>
-  <si>
-    <t>Medical recordss</t>
-  </si>
-  <si>
-    <t>Acceptablee</t>
-  </si>
-  <si>
-    <t>Exceeds Expectationss</t>
-  </si>
-  <si>
-    <t>Ref no 26July2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Task 19</t>
-  </si>
-  <si>
-    <t>RefNo-15</t>
-  </si>
-  <si>
-    <t>Task Test 53</t>
-  </si>
-  <si>
-    <t>New Task 26</t>
-  </si>
-  <si>
-    <t>Case No 19jun2024</t>
-  </si>
-  <si>
-    <t>Notice No 20jun24</t>
-  </si>
-  <si>
-    <t>Ref-4323275</t>
-  </si>
-  <si>
-    <t>New Task 14</t>
-  </si>
-  <si>
-    <t>RefNo-11</t>
-  </si>
-  <si>
-    <t>Case 63973428</t>
-  </si>
-  <si>
-    <t>No 9623642</t>
-  </si>
-  <si>
-    <t>Ref-748728</t>
-  </si>
-  <si>
-    <t>Task as 15</t>
-  </si>
-  <si>
-    <t>RefNo8</t>
-  </si>
-  <si>
-    <t>Case as on 5644293</t>
-  </si>
-  <si>
-    <t>Case 7919025</t>
-  </si>
-  <si>
-    <t>Task 20</t>
-  </si>
-  <si>
-    <t>New Task 82</t>
+    <t xml:space="preserve"> Test Contract Labour </t>
+  </si>
+  <si>
+    <t>Test Terminal Tax</t>
+  </si>
+  <si>
+    <t>Paper Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money </t>
+  </si>
+  <si>
+    <t>Microsoft Word documents</t>
+  </si>
+  <si>
+    <t>Purchase orders</t>
+  </si>
+  <si>
+    <t>Graphic scale</t>
+  </si>
+  <si>
+    <t>Comparative rating scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interlocutory Proceedings</t>
+  </si>
+  <si>
+    <t>Ref no 45202242</t>
+  </si>
+  <si>
+    <t>Task as on  1312224</t>
+  </si>
+  <si>
+    <t>Case No  49212024</t>
+  </si>
+  <si>
+    <t>Case No  55821024</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogin.aspx</t>
   </si>
 </sst>
 </file>
@@ -1501,13 +1505,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
@@ -1515,8 +1519,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1524,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1537,15 +1541,16 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1639,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1655,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1696,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1759,7 +1764,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1778,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1878,7 +1883,7 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -1911,7 +1916,7 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1919,7 +1924,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1960,7 +1965,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1992,7 +1997,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>2878634</v>
+        <v>2782834</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2011,7 +2016,7 @@
         <v>83</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2019,7 +2024,7 @@
         <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2044,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2060,7 +2065,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2121,7 +2126,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2140,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2148,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2156,7 +2161,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2202,7 +2207,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2210,7 +2215,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2301,7 +2306,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
@@ -2334,7 +2339,7 @@
         <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2342,7 +2347,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2376,7 +2381,7 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>7922024</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2384,7 +2389,7 @@
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2442,7 +2447,7 @@
         <v>96</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2460,7 +2465,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2475,7 +2480,7 @@
         <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -2508,7 +2513,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2516,7 +2521,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2557,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2572,8 +2577,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2581,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2597,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2605,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2631,7 +2636,7 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2647,7 +2652,7 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2655,7 +2660,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2663,7 +2668,7 @@
         <v>134</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2671,7 +2676,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2679,7 +2684,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -2693,7 +2698,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5">
@@ -2701,7 +2706,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2717,7 +2722,7 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2725,7 +2730,7 @@
         <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2741,7 +2746,7 @@
         <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -2754,7 +2759,7 @@
         <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2762,7 +2767,7 @@
         <v>113</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2778,7 +2783,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2808,7 +2813,7 @@
         <v>115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2816,7 +2821,7 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -2829,7 +2834,7 @@
         <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -2837,7 +2842,7 @@
         <v>116</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -2850,7 +2855,7 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2858,7 +2863,7 @@
         <v>117</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -2871,7 +2876,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2879,7 +2884,7 @@
         <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -2892,7 +2897,7 @@
         <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="25.5">
@@ -2900,7 +2905,7 @@
         <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -2913,7 +2918,7 @@
         <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2921,7 +2926,7 @@
         <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -2934,7 +2939,7 @@
         <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2942,7 +2947,7 @@
         <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -2955,7 +2960,7 @@
         <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2963,7 +2968,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -2976,7 +2981,7 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2984,33 +2989,33 @@
         <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B62">
-        <v>9000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3018,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3032,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3059,7 +3064,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3067,7 +3072,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3122,7 +3127,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3141,7 +3146,7 @@
         <v>27</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3242,7 +3247,7 @@
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C92" t="s">
         <v>61</v>
@@ -3275,7 +3280,7 @@
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3283,7 +3288,7 @@
         <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3320,7 +3325,7 @@
         <v>78</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3353,7 +3358,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -3373,7 +3378,7 @@
         <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3381,7 +3386,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3394,7 +3399,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3402,7 +3407,7 @@
         <v>42</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -3463,7 +3468,7 @@
         <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3482,7 +3487,7 @@
         <v>49</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3490,7 +3495,7 @@
         <v>14</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3498,7 +3503,7 @@
         <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3552,7 +3557,7 @@
         <v>58</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3643,7 +3648,7 @@
         <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C142" t="s">
         <v>61</v>
@@ -3676,7 +3681,7 @@
         <v>64</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3684,7 +3689,7 @@
         <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3705,7 +3710,7 @@
         <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3718,7 +3723,7 @@
         <v>88</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>92032394</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3781,7 +3786,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3789,7 +3794,7 @@
         <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C168" t="s">
         <v>61</v>
@@ -3822,7 +3827,7 @@
         <v>64</v>
       </c>
       <c r="B171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3830,7 +3835,7 @@
         <v>65</v>
       </c>
       <c r="B172" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3854,9 +3859,10 @@
     <hyperlink ref="B28" r:id="rId9" display="jadhav@jtyf.com"/>
     <hyperlink ref="B30" r:id="rId10"/>
     <hyperlink ref="B41" r:id="rId11" display="ABCD@itc.com"/>
+    <hyperlink ref="B1" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3868,8 +3874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3882,8 +3888,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3891,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3899,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>240</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3915,7 +3921,7 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3931,7 +3937,7 @@
         <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3983,7 +3989,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
@@ -3994,7 +4000,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -4016,7 +4022,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4024,7 +4030,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4040,7 +4046,7 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
@@ -4070,7 +4076,7 @@
         <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4103,7 +4109,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -4127,7 +4133,7 @@
         <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
@@ -4140,7 +4146,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -4201,7 +4207,7 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4220,7 +4226,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4228,7 +4234,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4236,7 +4242,7 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4260,7 +4266,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4281,7 +4287,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4294,7 +4300,7 @@
         <v>88</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>1612210024</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4302,7 +4308,7 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4315,7 +4321,7 @@
         <v>92</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4323,7 +4329,7 @@
         <v>96</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="9" customFormat="1" ht="15.75">
@@ -4341,7 +4347,7 @@
         <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4357,7 +4363,7 @@
         <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4365,7 +4371,7 @@
         <v>106</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4373,7 +4379,7 @@
         <v>134</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4381,7 +4387,7 @@
         <v>145</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4389,7 +4395,7 @@
         <v>106</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -4403,7 +4409,7 @@
         <v>110</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4411,7 +4417,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4427,7 +4433,7 @@
         <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4435,7 +4441,7 @@
         <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4451,7 +4457,7 @@
         <v>135</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -4464,7 +4470,7 @@
         <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4472,7 +4478,7 @@
         <v>113</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4488,7 +4494,7 @@
         <v>106</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4517,7 +4523,7 @@
         <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4525,7 +4531,7 @@
         <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -4538,7 +4544,7 @@
         <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
@@ -4546,7 +4552,7 @@
         <v>116</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -4559,7 +4565,7 @@
         <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4567,7 +4573,7 @@
         <v>117</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4586,7 +4592,7 @@
         <v>122</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4594,7 +4600,7 @@
         <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -4607,7 +4613,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4615,7 +4621,7 @@
         <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -4628,7 +4634,7 @@
         <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4636,7 +4642,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -4649,7 +4655,7 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4657,7 +4663,7 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -4670,7 +4676,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4678,7 +4684,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -4691,7 +4697,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4699,7 +4705,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4707,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4723,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4736,7 +4742,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B67" r:id="rId3"/>
     <hyperlink ref="B70" r:id="rId4"/>
@@ -4748,9 +4754,10 @@
     <hyperlink ref="B135" r:id="rId10"/>
     <hyperlink ref="B82" r:id="rId11" display="jadhav@jtyf.com"/>
     <hyperlink ref="B84" r:id="rId12"/>
+    <hyperlink ref="B1" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -4759,7 +4766,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4774,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4782,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4790,7 +4797,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4803,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -4844,7 +4851,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4907,7 +4914,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4926,7 +4933,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5021,7 +5028,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -5054,7 +5061,7 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5062,7 +5069,7 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5099,7 +5106,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5132,7 +5139,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -5176,7 +5183,7 @@
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -5237,7 +5244,7 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5256,7 +5263,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5272,7 +5279,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5318,7 +5325,7 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5326,7 +5333,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5428,7 +5435,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>1110024</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5436,7 +5443,7 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5494,7 +5501,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5850" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="8115" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -24,11 +19,12 @@
     <sheet name="Login" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="286">
   <si>
     <t>URL</t>
   </si>
@@ -543,9 +539,6 @@
     <t>Automation  06feb24</t>
   </si>
   <si>
-    <t>Cryptocurrency</t>
-  </si>
-  <si>
     <t>Task as on date 2132</t>
   </si>
   <si>
@@ -606,9 +599,6 @@
     <t>priya arora</t>
   </si>
   <si>
-    <t>Criminal</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Automation Test</t>
   </si>
   <si>
@@ -627,286 +617,283 @@
     <t>Civil</t>
   </si>
   <si>
-    <t>Sangram</t>
-  </si>
-  <si>
-    <t>snehal10.patil@tlregtech.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> deepali12@tlregtech.in</t>
-  </si>
-  <si>
     <t>Neha</t>
   </si>
   <si>
-    <t>admin@111</t>
-  </si>
-  <si>
     <t>Rushikesh</t>
   </si>
   <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>Pawar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Legal Customss </t>
-  </si>
-  <si>
-    <t>Conventional Customss</t>
-  </si>
-  <si>
-    <t>Service of summonss</t>
-  </si>
-  <si>
-    <t>Criminal appealss</t>
-  </si>
-  <si>
-    <t>Automate Test New9</t>
-  </si>
-  <si>
-    <t>Task as on 14may24</t>
-  </si>
-  <si>
-    <t>https://applicationtesting.teamleaseregtech.com/Login.aspx</t>
-  </si>
-  <si>
-    <t>Notice No 21jun2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Task 21</t>
-  </si>
-  <si>
-    <t>RefNo-17</t>
-  </si>
-  <si>
-    <t>Case No 28jun2024</t>
-  </si>
-  <si>
-    <t>Task Test 55</t>
-  </si>
-  <si>
-    <t>New Task 29</t>
-  </si>
-  <si>
-    <t>Ref-438527</t>
-  </si>
-  <si>
-    <t>New Task 17</t>
-  </si>
-  <si>
-    <t>RefNo-18</t>
-  </si>
-  <si>
-    <t>Case 63932228</t>
-  </si>
-  <si>
-    <t>No 9621922</t>
-  </si>
-  <si>
-    <t>Automate Test10</t>
-  </si>
-  <si>
-    <t>Limited liability company (LCCC)</t>
-  </si>
-  <si>
-    <t>Prashant Patil</t>
-  </si>
-  <si>
-    <t>prashant2@vimalagencies.net</t>
-  </si>
-  <si>
-    <t>Limited liability company (LLLc)</t>
-  </si>
-  <si>
-    <t>Corporations 7</t>
-  </si>
-  <si>
-    <t>riyansh7@gmail.com</t>
+    <t>Proof of ownership</t>
+  </si>
+  <si>
+    <t>Presentation of plaint.</t>
+  </si>
+  <si>
+    <t>Appearance of parties</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogin.aspx</t>
+  </si>
+  <si>
+    <t>Chavan</t>
+  </si>
+  <si>
+    <t>Kumtha</t>
+  </si>
+  <si>
+    <t>No20</t>
+  </si>
+  <si>
+    <t>Automate Test12</t>
+  </si>
+  <si>
+    <t>Automate Test New11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deepali@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Private limited company in India</t>
+  </si>
+  <si>
+    <t>Swapnil Bhosale</t>
+  </si>
+  <si>
+    <t>prashant8@vimalagencies.net</t>
+  </si>
+  <si>
+    <t>A partnership firm in India</t>
+  </si>
+  <si>
+    <t>Corporations 0</t>
+  </si>
+  <si>
+    <t>riyansh4@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">
-Defend &amp; Protect Firm</t>
+Business Law Firm</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-shoib8@gmail.com</t>
+shoib18@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">
- B7B Law Associates</t>
-  </si>
-  <si>
-    <t>Jadhav</t>
-  </si>
-  <si>
-    <t>nehay4@yahoo.com</t>
+ B10B Law Associates</t>
+  </si>
+  <si>
+    <t>nehayk@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-Ambrish Yadav</t>
+Ambrish Jadhav</t>
+  </si>
+  <si>
+    <t>Avirat Patil</t>
+  </si>
+  <si>
+    <t>Gauhati High Court.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andhra Pradesh High Court
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPANY APPLICATION </t>
+  </si>
+  <si>
+    <t>CIVIL APPEAL</t>
+  </si>
+  <si>
+    <t>Money Orders.</t>
+  </si>
+  <si>
+    <t>eChecks</t>
+  </si>
+  <si>
+    <t>Tailored to specific cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Flexibility in legal arguments</t>
+  </si>
+  <si>
+    <t>Initiation Stage</t>
+  </si>
+  <si>
+    <t>Pre-Trial Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleadings </t>
+  </si>
+  <si>
+    <t>Supporting Documents</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Legal Arguments</t>
+  </si>
+  <si>
+    <t>Content of the notice</t>
+  </si>
+  <si>
+    <t>Service of notice</t>
+  </si>
+  <si>
+    <t>Ref-73435232</t>
+  </si>
+  <si>
+    <t>Branch office</t>
+  </si>
+  <si>
+    <t>Prashant Kadam</t>
+  </si>
+  <si>
+    <t>prashant4@vimalagencies.net</t>
+  </si>
+  <si>
+    <t>Non-government organization (NGO)</t>
+  </si>
+  <si>
+    <t>Corporations 9</t>
+  </si>
+  <si>
+    <t>riyansh9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AK &amp; Partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+shoib10@gmail.com</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ B9B Law Associates</t>
+  </si>
+  <si>
+    <t>nehay6@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Ambrish Sawant</t>
   </si>
   <si>
     <t>Avirat Yadav</t>
   </si>
   <si>
-    <t>Mumbai  Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHHATTISGARH  COURT.
+    <t>Calcutta High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerala High Court
 </t>
   </si>
   <si>
-    <t>New Legal Notice for Money Recovery.</t>
-  </si>
-  <si>
-    <t>New Legal Notice for Eviction.</t>
-  </si>
-  <si>
-    <t>Mobile payment</t>
-  </si>
-  <si>
-    <t>Direct debit card</t>
-  </si>
-  <si>
-    <t>New Criminal</t>
+    <t xml:space="preserve">FIRST APPEAL ORDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIFT TAX CASE </t>
+  </si>
+  <si>
+    <t>Bank transfer</t>
+  </si>
+  <si>
+    <t>Credit card &amp; Debit cards</t>
+  </si>
+  <si>
+    <t>Customer churn</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-New Public notice</t>
-  </si>
-  <si>
-    <t>Contracts</t>
-  </si>
-  <si>
-    <t>Proof of ownership</t>
+Customer lifetime value (CLV)</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Framing of issues</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Presentation of plaint.</t>
-  </si>
-  <si>
-    <t>Appearance of parties</t>
-  </si>
-  <si>
-    <t>No19</t>
-  </si>
-  <si>
-    <t>Ref-8729332</t>
-  </si>
-  <si>
-    <t>Task as 79</t>
-  </si>
-  <si>
-    <t>Case as on 57292693</t>
-  </si>
-  <si>
-    <t>RefNo14</t>
-  </si>
-  <si>
-    <t>Case 742825025</t>
-  </si>
-  <si>
-    <t>Task 22</t>
-  </si>
-  <si>
-    <t>New Task 91</t>
-  </si>
-  <si>
-    <t>RefNo-23may</t>
-  </si>
-  <si>
-    <t>Limited Partnership (LP)</t>
-  </si>
-  <si>
-    <t>Rushikesh Patil</t>
-  </si>
-  <si>
-    <t>rushikesh14@gmail.com</t>
-  </si>
-  <si>
-    <t>P corporation</t>
-  </si>
-  <si>
-    <t>C corporation</t>
-  </si>
-  <si>
-    <t>ram12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Tax Law Pvt Ltd  </t>
-  </si>
-  <si>
-    <t>saniya7@itc.com</t>
-  </si>
-  <si>
-    <t>Jadahv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-New Sports Law Group </t>
-  </si>
-  <si>
-    <t>tanuja8@yahoo.com</t>
-  </si>
-  <si>
-    <t>Rohini Patil</t>
-  </si>
-  <si>
-    <t>Shri Devkar</t>
-  </si>
-  <si>
-    <t>Supreme Court of Satara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City Civil and Sessions Court, Satara
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Contract Labour </t>
-  </si>
-  <si>
-    <t>Test Terminal Tax</t>
-  </si>
-  <si>
-    <t>Paper Checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money </t>
-  </si>
-  <si>
-    <t>Microsoft Word documents</t>
-  </si>
-  <si>
-    <t>Purchase orders</t>
-  </si>
-  <si>
-    <t>Graphic scale</t>
-  </si>
-  <si>
-    <t>Comparative rating scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Interlocutory Proceedings</t>
-  </si>
-  <si>
-    <t>Ref no 45202242</t>
-  </si>
-  <si>
-    <t>Task as on  1312224</t>
-  </si>
-  <si>
-    <t>Case No  49212024</t>
-  </si>
-  <si>
-    <t>Case No  55821024</t>
-  </si>
-  <si>
-    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogin.aspx</t>
+    <t>RefNo166</t>
+  </si>
+  <si>
+    <t>Ref-6372025</t>
+  </si>
+  <si>
+    <t>Task as on 7306425</t>
+  </si>
+  <si>
+    <t>Case as on 0703441</t>
+  </si>
+  <si>
+    <t>Case 095425</t>
+  </si>
+  <si>
+    <t>Task 57368</t>
+  </si>
+  <si>
+    <t>New Task 34532</t>
+  </si>
+  <si>
+    <t>Task as on 24may23</t>
+  </si>
+  <si>
+    <t>Task as on  0039</t>
+  </si>
+  <si>
+    <t>RefNo-721</t>
+  </si>
+  <si>
+    <t>Case No  90283025</t>
+  </si>
+  <si>
+    <t>Case No  52532025</t>
+  </si>
+  <si>
+    <t>bhagyesh@tlregtech.com</t>
+  </si>
+  <si>
+    <t>Ref no 73268382</t>
+  </si>
+  <si>
+    <t>New Task 823</t>
+  </si>
+  <si>
+    <t>RefNo-89</t>
+  </si>
+  <si>
+    <t>Case 6822271</t>
+  </si>
+  <si>
+    <t>No 81781134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Task 282260225</t>
+  </si>
+  <si>
+    <t>RefNo-2827225</t>
+  </si>
+  <si>
+    <t>Case No 720225</t>
+  </si>
+  <si>
+    <t>Task Test 288</t>
+  </si>
+  <si>
+    <t>New Task 2826225</t>
+  </si>
+  <si>
+    <t>Notice No 2838425</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1492,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1520,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1528,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1528,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1644,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1660,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1701,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1764,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1783,7 +1770,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1883,7 +1870,7 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -1916,7 +1903,7 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1924,7 +1911,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1965,7 +1952,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1997,7 +1984,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>2782834</v>
+        <v>287220225</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2024,7 +2011,7 @@
         <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2049,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2065,7 +2052,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2126,7 +2113,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2145,7 +2132,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2153,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2161,7 +2148,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2207,7 +2194,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2215,7 +2202,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2306,7 +2293,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
@@ -2339,7 +2326,7 @@
         <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2347,7 +2334,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2381,7 +2368,7 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>7922024</v>
+        <v>282125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2447,7 +2434,7 @@
         <v>96</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2464,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2480,7 +2467,7 @@
         <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -2513,7 +2500,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2521,7 +2508,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2562,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2578,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2586,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2636,7 +2623,7 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2652,7 +2639,7 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2660,7 +2647,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2668,7 +2655,7 @@
         <v>134</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2676,7 +2663,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2684,7 +2671,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -2698,7 +2685,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5">
@@ -2706,7 +2693,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2722,7 +2709,7 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2730,7 +2717,7 @@
         <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2746,7 +2733,7 @@
         <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -2759,7 +2746,7 @@
         <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2767,7 +2754,7 @@
         <v>113</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2783,7 +2770,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2813,7 +2800,7 @@
         <v>115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2821,7 +2808,7 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -2834,7 +2821,7 @@
         <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -2842,7 +2829,7 @@
         <v>116</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -2855,7 +2842,7 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2863,7 +2850,7 @@
         <v>117</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -2876,7 +2863,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2884,7 +2871,7 @@
         <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -2897,7 +2884,7 @@
         <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="25.5">
@@ -2905,7 +2892,7 @@
         <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -2918,7 +2905,7 @@
         <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2926,7 +2913,7 @@
         <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -2939,7 +2926,7 @@
         <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2947,7 +2934,7 @@
         <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -2960,7 +2947,7 @@
         <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2968,7 +2955,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -2981,7 +2968,7 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2989,7 +2976,7 @@
         <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3002,7 +2989,7 @@
         <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3010,12 +2997,12 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>50000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3023,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3037,7 +3024,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3064,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3072,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3127,7 +3114,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3146,7 +3133,7 @@
         <v>27</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3247,7 +3234,7 @@
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
         <v>61</v>
@@ -3280,7 +3267,7 @@
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3288,7 +3275,7 @@
         <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3325,7 +3312,7 @@
         <v>78</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3358,7 +3345,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -3378,7 +3365,7 @@
         <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3386,7 +3373,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3399,7 +3386,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3407,7 +3394,7 @@
         <v>42</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -3468,7 +3455,7 @@
         <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3487,7 +3474,7 @@
         <v>49</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3495,7 +3482,7 @@
         <v>14</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3503,7 +3490,7 @@
         <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3557,7 +3544,7 @@
         <v>58</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3648,7 +3635,7 @@
         <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C142" t="s">
         <v>61</v>
@@ -3681,7 +3668,7 @@
         <v>64</v>
       </c>
       <c r="B145" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3689,7 +3676,7 @@
         <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3710,7 +3697,7 @@
         <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3723,7 +3710,7 @@
         <v>88</v>
       </c>
       <c r="B154">
-        <v>92032394</v>
+        <v>302272025</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3786,7 +3773,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3794,7 +3781,7 @@
         <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C168" t="s">
         <v>61</v>
@@ -3827,7 +3814,7 @@
         <v>64</v>
       </c>
       <c r="B171" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3835,7 +3822,7 @@
         <v>65</v>
       </c>
       <c r="B172" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3874,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3889,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3897,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3921,7 +3908,7 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3937,7 +3924,7 @@
         <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3988,8 +3975,8 @@
       <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
-        <v>212</v>
+      <c r="B13" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
@@ -4000,7 +3987,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -4022,7 +4009,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4030,7 +4017,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4046,7 +4033,7 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
@@ -4076,7 +4063,7 @@
         <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4109,7 +4096,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -4133,7 +4120,7 @@
         <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
@@ -4146,7 +4133,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -4207,7 +4194,7 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4226,7 +4213,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4234,7 +4221,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4242,7 +4229,7 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4266,7 +4253,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4287,7 +4274,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4300,7 +4287,7 @@
         <v>88</v>
       </c>
       <c r="B54">
-        <v>1612210024</v>
+        <v>482525</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4308,7 +4295,7 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4321,7 +4308,7 @@
         <v>92</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4329,7 +4316,7 @@
         <v>96</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="9" customFormat="1" ht="15.75">
@@ -4347,7 +4334,7 @@
         <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4363,7 +4350,7 @@
         <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4371,7 +4358,7 @@
         <v>106</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4379,7 +4366,7 @@
         <v>134</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4387,7 +4374,7 @@
         <v>145</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4395,7 +4382,7 @@
         <v>106</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -4409,15 +4396,15 @@
         <v>110</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="25.5">
       <c r="A73" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>268</v>
+      <c r="B73" s="27" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4433,7 +4420,7 @@
         <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4441,7 +4428,7 @@
         <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4457,7 +4444,7 @@
         <v>135</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -4470,7 +4457,7 @@
         <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4478,7 +4465,7 @@
         <v>113</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4494,7 +4481,7 @@
         <v>106</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4518,12 +4505,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" ht="25.5">
       <c r="A89" t="s">
         <v>115</v>
       </c>
-      <c r="B89" t="s">
-        <v>272</v>
+      <c r="B89" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4531,7 +4518,7 @@
         <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -4544,7 +4531,7 @@
         <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
@@ -4552,7 +4539,7 @@
         <v>116</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -4565,7 +4552,7 @@
         <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4573,7 +4560,7 @@
         <v>117</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4592,7 +4579,7 @@
         <v>122</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4600,7 +4587,7 @@
         <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -4613,15 +4600,15 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="25.5">
       <c r="A110" t="s">
         <v>124</v>
       </c>
-      <c r="B110" t="s">
-        <v>208</v>
+      <c r="B110" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -4634,7 +4621,7 @@
         <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4642,7 +4629,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -4655,7 +4642,7 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4663,7 +4650,7 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -4676,7 +4663,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4684,7 +4671,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -4697,7 +4684,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4705,7 +4692,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4713,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4729,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4744,17 +4731,17 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B67" r:id="rId3"/>
-    <hyperlink ref="B70" r:id="rId4"/>
-    <hyperlink ref="B73" r:id="rId5"/>
-    <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com"/>
-    <hyperlink ref="B134" r:id="rId7"/>
-    <hyperlink ref="B133" r:id="rId8"/>
-    <hyperlink ref="B136" r:id="rId9"/>
-    <hyperlink ref="B135" r:id="rId10"/>
+    <hyperlink ref="B134" r:id="rId3"/>
+    <hyperlink ref="B133" r:id="rId4"/>
+    <hyperlink ref="B136" r:id="rId5"/>
+    <hyperlink ref="B135" r:id="rId6"/>
+    <hyperlink ref="B1" r:id="rId7"/>
+    <hyperlink ref="B67" r:id="rId8"/>
+    <hyperlink ref="B70" r:id="rId9"/>
+    <hyperlink ref="B73" r:id="rId10" display="sujays@gmail.com"/>
     <hyperlink ref="B82" r:id="rId11" display="jadhav@jtyf.com"/>
     <hyperlink ref="B84" r:id="rId12"/>
-    <hyperlink ref="B1" r:id="rId13"/>
+    <hyperlink ref="B100" r:id="rId13" display="ABCD@itc.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -4766,13 +4753,13 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4781,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4789,7 +4776,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4797,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4810,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -4851,7 +4838,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4876,7 +4863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="25.5">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4914,7 +4901,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4933,7 +4920,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5028,7 +5015,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -5061,7 +5048,7 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5069,7 +5056,7 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5106,7 +5093,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5139,7 +5126,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -5159,7 +5146,7 @@
         <v>83</v>
       </c>
       <c r="B48" s="3">
-        <v>643467</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5183,7 +5170,7 @@
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -5244,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5263,7 +5250,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5279,7 +5266,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5325,7 +5312,7 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5333,7 +5320,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5435,7 +5422,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>1110024</v>
+        <v>6752025</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5501,15 +5488,15 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B1" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
